--- a/Code/Results/Cases/Case_6_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002079344576965</v>
+        <v>1.002079344576963</v>
       </c>
       <c r="D2">
-        <v>1.023487744805768</v>
+        <v>1.023487744805766</v>
       </c>
       <c r="E2">
-        <v>1.005774352777174</v>
+        <v>1.005774352777172</v>
       </c>
       <c r="F2">
-        <v>1.023324650067116</v>
+        <v>1.023324650067115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048437119119077</v>
+        <v>1.048437119119076</v>
       </c>
       <c r="J2">
-        <v>1.024198040180058</v>
+        <v>1.024198040180055</v>
       </c>
       <c r="K2">
-        <v>1.034629275786206</v>
+        <v>1.034629275786205</v>
       </c>
       <c r="L2">
-        <v>1.01715382362804</v>
+        <v>1.017153823628038</v>
       </c>
       <c r="M2">
-        <v>1.034468324750673</v>
+        <v>1.034468324750671</v>
       </c>
       <c r="N2">
-        <v>1.02565251887427</v>
+        <v>1.025652518874268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01194675514442</v>
+        <v>1.011946755144417</v>
       </c>
       <c r="D3">
-        <v>1.031420888328812</v>
+        <v>1.03142088832881</v>
       </c>
       <c r="E3">
-        <v>1.014337820477802</v>
+        <v>1.0143378204778</v>
       </c>
       <c r="F3">
-        <v>1.032261862865365</v>
+        <v>1.032261862865362</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051973601172071</v>
+        <v>1.05197360117207</v>
       </c>
       <c r="J3">
-        <v>1.032116954300054</v>
+        <v>1.032116954300051</v>
       </c>
       <c r="K3">
-        <v>1.041666918385619</v>
+        <v>1.041666918385616</v>
       </c>
       <c r="L3">
-        <v>1.024790475103297</v>
+        <v>1.024790475103295</v>
       </c>
       <c r="M3">
-        <v>1.042497939916576</v>
+        <v>1.042497939916574</v>
       </c>
       <c r="N3">
-        <v>1.033582678760629</v>
+        <v>1.033582678760627</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018083899886469</v>
+        <v>1.018083899886467</v>
       </c>
       <c r="D4">
-        <v>1.036358112575608</v>
+        <v>1.036358112575607</v>
       </c>
       <c r="E4">
-        <v>1.019664713377508</v>
+        <v>1.019664713377507</v>
       </c>
       <c r="F4">
-        <v>1.03782863965434</v>
+        <v>1.037828639654338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054156474088036</v>
+        <v>1.054156474088035</v>
       </c>
       <c r="J4">
-        <v>1.037036063120261</v>
+        <v>1.03703606312026</v>
       </c>
       <c r="K4">
-        <v>1.046036670271374</v>
+        <v>1.046036670271373</v>
       </c>
       <c r="L4">
-        <v>1.029531457375757</v>
+        <v>1.029531457375756</v>
       </c>
       <c r="M4">
-        <v>1.047490976566808</v>
+        <v>1.047490976566806</v>
       </c>
       <c r="N4">
-        <v>1.038508773279591</v>
+        <v>1.038508773279589</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,7 +544,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020608996509219</v>
+        <v>1.02060899650922</v>
       </c>
       <c r="D5">
         <v>1.03839008634024</v>
@@ -553,7 +553,7 @@
         <v>1.021856506443075</v>
       </c>
       <c r="F5">
-        <v>1.040120863604422</v>
+        <v>1.040120863604423</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.055050515400015</v>
       </c>
       <c r="J5">
-        <v>1.039058444250423</v>
+        <v>1.039058444250424</v>
       </c>
       <c r="K5">
         <v>1.047832691268807</v>
@@ -571,10 +571,10 @@
         <v>1.031479937766888</v>
       </c>
       <c r="M5">
-        <v>1.049544946337691</v>
+        <v>1.049544946337692</v>
       </c>
       <c r="N5">
-        <v>1.040534026422928</v>
+        <v>1.040534026422929</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055199286143079</v>
+        <v>1.05519928614308</v>
       </c>
       <c r="J6">
-        <v>1.039395429384501</v>
+        <v>1.039395429384502</v>
       </c>
       <c r="K6">
         <v>1.048131927627445</v>
@@ -612,10 +612,10 @@
         <v>1.031804569709511</v>
       </c>
       <c r="M6">
-        <v>1.049887264148129</v>
+        <v>1.04988726414813</v>
       </c>
       <c r="N6">
-        <v>1.040871490114549</v>
+        <v>1.04087149011455</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,10 +626,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01811785092777</v>
+        <v>1.018117850927769</v>
       </c>
       <c r="D7">
-        <v>1.036385431281934</v>
+        <v>1.036385431281933</v>
       </c>
       <c r="E7">
         <v>1.019694182862199</v>
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005468160752364</v>
+        <v>1.005468160752363</v>
       </c>
       <c r="D8">
         <v>1.026211492235254</v>
       </c>
       <c r="E8">
-        <v>1.008715117808989</v>
+        <v>1.008715117808988</v>
       </c>
       <c r="F8">
-        <v>1.026392161378265</v>
+        <v>1.026392161378264</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -685,19 +685,19 @@
         <v>1.049655158135487</v>
       </c>
       <c r="J8">
-        <v>1.026918923692835</v>
+        <v>1.026918923692834</v>
       </c>
       <c r="K8">
-        <v>1.037047742176927</v>
+        <v>1.037047742176926</v>
       </c>
       <c r="L8">
-        <v>1.019778317317032</v>
+        <v>1.019778317317031</v>
       </c>
       <c r="M8">
-        <v>1.037226118222039</v>
+        <v>1.037226118222038</v>
       </c>
       <c r="N8">
-        <v>1.028377266353726</v>
+        <v>1.028377266353725</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9810532848642654</v>
+        <v>0.981053284864266</v>
       </c>
       <c r="D9">
-        <v>1.006610247149878</v>
+        <v>1.006610247149879</v>
       </c>
       <c r="E9">
-        <v>0.9875370354732456</v>
+        <v>0.9875370354732462</v>
       </c>
       <c r="F9">
-        <v>1.004336156577336</v>
+        <v>1.004336156577337</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>1.007293310224955</v>
       </c>
       <c r="K9">
-        <v>1.019596980428661</v>
+        <v>1.019596980428662</v>
       </c>
       <c r="L9">
-        <v>1.000835604625373</v>
+        <v>1.000835604625374</v>
       </c>
       <c r="M9">
         <v>1.017359272242206</v>
       </c>
       <c r="N9">
-        <v>1.008723782263632</v>
+        <v>1.008723782263633</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9629668281671343</v>
+        <v>0.962966828167136</v>
       </c>
       <c r="D10">
-        <v>0.9921298281801267</v>
+        <v>0.9921298281801283</v>
       </c>
       <c r="E10">
-        <v>0.9718674723783709</v>
+        <v>0.9718674723783723</v>
       </c>
       <c r="F10">
-        <v>0.9880651514361639</v>
+        <v>0.9880651514361656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034173730944448</v>
+        <v>1.034173730944449</v>
       </c>
       <c r="J10">
-        <v>0.9927309056446622</v>
+        <v>0.9927309056446635</v>
       </c>
       <c r="K10">
-        <v>1.006642649954155</v>
+        <v>1.006642649954156</v>
       </c>
       <c r="L10">
-        <v>0.9867639503966578</v>
+        <v>0.9867639503966593</v>
       </c>
       <c r="M10">
-        <v>1.002653289461815</v>
+        <v>1.002653289461817</v>
       </c>
       <c r="N10">
-        <v>0.994140697398504</v>
+        <v>0.9941406973985055</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9545960122500492</v>
+        <v>0.954596012250049</v>
       </c>
       <c r="D11">
-        <v>0.9854419796050692</v>
+        <v>0.9854419796050695</v>
       </c>
       <c r="E11">
-        <v>0.9646228443686208</v>
+        <v>0.9646228443686206</v>
       </c>
       <c r="F11">
-        <v>0.9805550535332865</v>
+        <v>0.9805550535332869</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -808,19 +808,19 @@
         <v>1.031084177696443</v>
       </c>
       <c r="J11">
-        <v>0.9859877203843357</v>
+        <v>0.9859877203843359</v>
       </c>
       <c r="K11">
-        <v>1.000643762003324</v>
+        <v>1.000643762003325</v>
       </c>
       <c r="L11">
-        <v>0.9802442502515643</v>
+        <v>0.9802442502515639</v>
       </c>
       <c r="M11">
-        <v>0.9958532318893254</v>
+        <v>0.9958532318893257</v>
       </c>
       <c r="N11">
-        <v>0.9873879360416538</v>
+        <v>0.9873879360416536</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9513938635322811</v>
+        <v>0.9513938635322822</v>
       </c>
       <c r="D12">
-        <v>0.9828861987378457</v>
+        <v>0.9828861987378463</v>
       </c>
       <c r="E12">
-        <v>0.9618529700856465</v>
+        <v>0.9618529700856477</v>
       </c>
       <c r="F12">
-        <v>0.9776856880836995</v>
+        <v>0.9776856880837002</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02989982707515</v>
+        <v>1.029899827075151</v>
       </c>
       <c r="J12">
-        <v>0.9834079365222542</v>
+        <v>0.9834079365222552</v>
       </c>
       <c r="K12">
-        <v>0.9983487846024671</v>
+        <v>0.9983487846024678</v>
       </c>
       <c r="L12">
-        <v>0.9777494100286823</v>
+        <v>0.9777494100286834</v>
       </c>
       <c r="M12">
-        <v>0.9932532562059981</v>
+        <v>0.9932532562059988</v>
       </c>
       <c r="N12">
-        <v>0.9848044885905827</v>
+        <v>0.9848044885905837</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.952085155356981</v>
+        <v>0.9520851553569799</v>
       </c>
       <c r="D13">
-        <v>0.9834378260898305</v>
+        <v>0.9834378260898292</v>
       </c>
       <c r="E13">
-        <v>0.962450868955795</v>
+        <v>0.9624508689557936</v>
       </c>
       <c r="F13">
-        <v>0.9783049704376486</v>
+        <v>0.9783049704376471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030155616941366</v>
+        <v>1.030155616941365</v>
       </c>
       <c r="J13">
-        <v>0.9839648773919487</v>
+        <v>0.9839648773919476</v>
       </c>
       <c r="K13">
-        <v>0.9988442351675259</v>
+        <v>0.9988442351675246</v>
       </c>
       <c r="L13">
-        <v>0.9782880375899945</v>
+        <v>0.9782880375899932</v>
       </c>
       <c r="M13">
-        <v>0.9938144834690339</v>
+        <v>0.9938144834690325</v>
       </c>
       <c r="N13">
-        <v>0.9853622203801942</v>
+        <v>0.9853622203801931</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9543332934612075</v>
+        <v>0.9543332934612052</v>
       </c>
       <c r="D14">
-        <v>0.9852322368661898</v>
+        <v>0.9852322368661878</v>
       </c>
       <c r="E14">
-        <v>0.9643955596294891</v>
+        <v>0.9643955596294872</v>
       </c>
       <c r="F14">
-        <v>0.9803195636707198</v>
+        <v>0.9803195636707178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030987056935539</v>
+        <v>1.030987056935537</v>
       </c>
       <c r="J14">
-        <v>0.9857760670053096</v>
+        <v>0.9857760670053073</v>
       </c>
       <c r="K14">
-        <v>1.000455473225027</v>
+        <v>1.000455473225025</v>
       </c>
       <c r="L14">
-        <v>0.980039577088644</v>
+        <v>0.980039577088642</v>
       </c>
       <c r="M14">
-        <v>0.9956398894916133</v>
+        <v>0.9956398894916111</v>
       </c>
       <c r="N14">
-        <v>0.9871759820905524</v>
+        <v>0.9871759820905501</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9557057439585273</v>
+        <v>0.955705743958526</v>
       </c>
       <c r="D15">
-        <v>0.9863280459162008</v>
+        <v>0.9863280459162</v>
       </c>
       <c r="E15">
-        <v>0.9655829630201423</v>
+        <v>0.9655829630201409</v>
       </c>
       <c r="F15">
-        <v>0.9815499150281674</v>
+        <v>0.9815499150281665</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.031494319589727</v>
       </c>
       <c r="J15">
-        <v>0.9868817411998401</v>
+        <v>0.9868817411998385</v>
       </c>
       <c r="K15">
-        <v>1.001439094010723</v>
+        <v>1.001439094010722</v>
       </c>
       <c r="L15">
-        <v>0.9811087642812274</v>
+        <v>0.9811087642812261</v>
       </c>
       <c r="M15">
-        <v>0.9967544512382038</v>
+        <v>0.9967544512382028</v>
       </c>
       <c r="N15">
-        <v>0.9882832264692618</v>
+        <v>0.9882832264692599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.963510055472459</v>
+        <v>0.9635100554724586</v>
       </c>
       <c r="D16">
-        <v>0.9925641626646245</v>
+        <v>0.9925641626646242</v>
       </c>
       <c r="E16">
-        <v>0.9723377965286852</v>
+        <v>0.9723377965286846</v>
       </c>
       <c r="F16">
-        <v>0.9885529774713779</v>
+        <v>0.9885529774713772</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.034373877582514</v>
       </c>
       <c r="J16">
-        <v>0.9931684571638594</v>
+        <v>0.9931684571638589</v>
       </c>
       <c r="K16">
         <v>1.007031907168567</v>
       </c>
       <c r="L16">
-        <v>0.9871869239818475</v>
+        <v>0.9871869239818472</v>
       </c>
       <c r="M16">
-        <v>1.003094737956123</v>
+        <v>1.003094737956122</v>
       </c>
       <c r="N16">
-        <v>0.9945788702910465</v>
+        <v>0.9945788702910461</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9682535091862146</v>
+        <v>0.9682535091862154</v>
       </c>
       <c r="D17">
-        <v>0.9963583734153517</v>
+        <v>0.9963583734153529</v>
       </c>
       <c r="E17">
-        <v>0.9764455388853652</v>
+        <v>0.9764455388853658</v>
       </c>
       <c r="F17">
-        <v>0.9928149954060594</v>
+        <v>0.9928149954060607</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036119573368333</v>
+        <v>1.036119573368334</v>
       </c>
       <c r="J17">
-        <v>0.9969887985009659</v>
+        <v>0.9969887985009669</v>
       </c>
       <c r="K17">
-        <v>1.010430556244631</v>
+        <v>1.010430556244632</v>
       </c>
       <c r="L17">
-        <v>0.9908795643967319</v>
+        <v>0.9908795643967323</v>
       </c>
       <c r="M17">
-        <v>1.00695018762741</v>
+        <v>1.006950187627411</v>
       </c>
       <c r="N17">
-        <v>0.9984046369510509</v>
+        <v>0.9984046369510516</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9709691711815831</v>
+        <v>0.9709691711815833</v>
       </c>
       <c r="D18">
-        <v>0.998531851843575</v>
+        <v>0.9985318518435751</v>
       </c>
       <c r="E18">
-        <v>0.97879793173477</v>
+        <v>0.9787979317347701</v>
       </c>
       <c r="F18">
-        <v>0.9952568978163379</v>
+        <v>0.995256897816338</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,13 +1095,13 @@
         <v>1.037117314990245</v>
       </c>
       <c r="J18">
-        <v>0.9991756412092817</v>
+        <v>0.9991756412092818</v>
       </c>
       <c r="K18">
-        <v>1.01237597565003</v>
+        <v>1.012375975650031</v>
       </c>
       <c r="L18">
-        <v>0.9929929595238645</v>
+        <v>0.9929929595238643</v>
       </c>
       <c r="M18">
         <v>1.009158008740506</v>
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718867922255902</v>
+        <v>0.9718867922255923</v>
       </c>
       <c r="D19">
-        <v>0.9992664716361133</v>
+        <v>0.999266471636115</v>
       </c>
       <c r="E19">
-        <v>0.979592911221698</v>
+        <v>0.9795929112217003</v>
       </c>
       <c r="F19">
-        <v>0.996082320347329</v>
+        <v>0.9960823203473312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037454160326329</v>
+        <v>1.03745416032633</v>
       </c>
       <c r="J19">
-        <v>0.9999145119875302</v>
+        <v>0.9999145119875322</v>
       </c>
       <c r="K19">
-        <v>1.01303326727208</v>
+        <v>1.013033267272081</v>
       </c>
       <c r="L19">
-        <v>0.9937069551310255</v>
+        <v>0.9937069551310277</v>
       </c>
       <c r="M19">
-        <v>1.009904113854366</v>
+        <v>1.009904113854368</v>
       </c>
       <c r="N19">
-        <v>1.00133450528635</v>
+        <v>1.001334505286352</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677499461707763</v>
+        <v>0.9677499461707755</v>
       </c>
       <c r="D20">
-        <v>0.9959554468611911</v>
+        <v>0.9959554468611901</v>
       </c>
       <c r="E20">
-        <v>0.976009389781451</v>
+        <v>0.97600938978145</v>
       </c>
       <c r="F20">
-        <v>0.992362344146381</v>
+        <v>0.9923623441463799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035934424857254</v>
+        <v>1.035934424857253</v>
       </c>
       <c r="J20">
-        <v>0.996583265597865</v>
+        <v>0.9965832655978641</v>
       </c>
       <c r="K20">
-        <v>1.010069789648606</v>
+        <v>1.010069789648605</v>
       </c>
       <c r="L20">
-        <v>0.9904876233766163</v>
+        <v>0.9904876233766151</v>
       </c>
       <c r="M20">
-        <v>1.006540835302057</v>
+        <v>1.006540835302055</v>
       </c>
       <c r="N20">
-        <v>0.9979985281447122</v>
+        <v>0.9979985281447112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9536739439853386</v>
+        <v>0.9536739439853379</v>
       </c>
       <c r="D21">
-        <v>0.9847058851583017</v>
+        <v>0.984705885158301</v>
       </c>
       <c r="E21">
-        <v>0.9638251642640103</v>
+        <v>0.9638251642640099</v>
       </c>
       <c r="F21">
-        <v>0.9797286092785754</v>
+        <v>0.9797286092785744</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.030743272465441</v>
       </c>
       <c r="J21">
-        <v>0.9852448738631024</v>
+        <v>0.9852448738631018</v>
       </c>
       <c r="K21">
-        <v>0.9999829202404764</v>
+        <v>0.9999829202404757</v>
       </c>
       <c r="L21">
-        <v>0.9795258935277242</v>
+        <v>0.9795258935277237</v>
       </c>
       <c r="M21">
-        <v>0.9951044829317877</v>
+        <v>0.9951044829317869</v>
       </c>
       <c r="N21">
-        <v>0.9866440345931543</v>
+        <v>0.986644034593154</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442786736669424</v>
+        <v>0.9442786736669425</v>
       </c>
       <c r="D22">
-        <v>0.9772126062502179</v>
+        <v>0.9772126062502182</v>
       </c>
       <c r="E22">
-        <v>0.9557014374407451</v>
+        <v>0.9557014374407452</v>
       </c>
       <c r="F22">
-        <v>0.9713170627546913</v>
+        <v>0.971317062754691</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.02726387706983</v>
       </c>
       <c r="J22">
-        <v>0.9776754711637801</v>
+        <v>0.9776754711637803</v>
       </c>
       <c r="K22">
-        <v>0.9932494174343443</v>
+        <v>0.9932494174343445</v>
       </c>
       <c r="L22">
-        <v>0.9722046774865652</v>
+        <v>0.9722046774865654</v>
       </c>
       <c r="M22">
         <v>0.9874789838318733</v>
       </c>
       <c r="N22">
-        <v>0.9790638824737767</v>
+        <v>0.9790638824737768</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493156224693916</v>
+        <v>0.9493156224693952</v>
       </c>
       <c r="D23">
-        <v>0.9812282508668249</v>
+        <v>0.9812282508668277</v>
       </c>
       <c r="E23">
-        <v>0.9600557414704405</v>
+        <v>0.9600557414704441</v>
       </c>
       <c r="F23">
-        <v>0.9758244868485717</v>
+        <v>0.9758244868485751</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029130497621662</v>
+        <v>1.029130497621664</v>
       </c>
       <c r="J23">
-        <v>0.9817335796013396</v>
+        <v>0.9817335796013429</v>
       </c>
       <c r="K23">
-        <v>0.9968593061615763</v>
+        <v>0.9968593061615795</v>
       </c>
       <c r="L23">
-        <v>0.976130028564551</v>
+        <v>0.9761300285645543</v>
       </c>
       <c r="M23">
-        <v>0.9915662532596848</v>
+        <v>0.9915662532596883</v>
       </c>
       <c r="N23">
-        <v>0.9831277538907892</v>
+        <v>0.9831277538907924</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679776417100441</v>
+        <v>0.9679776417100446</v>
       </c>
       <c r="D24">
-        <v>0.9961376338151374</v>
+        <v>0.9961376338151379</v>
       </c>
       <c r="E24">
-        <v>0.9762066007504062</v>
+        <v>0.9762066007504067</v>
       </c>
       <c r="F24">
-        <v>0.9925670131933819</v>
+        <v>0.9925670131933824</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.036018148511785</v>
       </c>
       <c r="J24">
-        <v>0.9967666360154732</v>
+        <v>0.9967666360154738</v>
       </c>
       <c r="K24">
-        <v>1.010232918143965</v>
+        <v>1.010232918143966</v>
       </c>
       <c r="L24">
-        <v>0.9906648490195377</v>
+        <v>0.990664849019538</v>
       </c>
       <c r="M24">
         <v>1.006725930016183</v>
       </c>
       <c r="N24">
-        <v>0.9981821589693463</v>
+        <v>0.9981821589693469</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,13 +1364,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876521982791735</v>
+        <v>0.9876521982791742</v>
       </c>
       <c r="D25">
         <v>1.011902645144139</v>
       </c>
       <c r="E25">
-        <v>0.9932587411503212</v>
+        <v>0.9932587411503215</v>
       </c>
       <c r="F25">
         <v>1.010287318275971</v>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043215642759253</v>
+        <v>1.043215642759254</v>
       </c>
       <c r="J25">
         <v>1.012602382587203</v>

--- a/Code/Results/Cases/Case_6_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002079344576963</v>
+        <v>1.001392710825506</v>
       </c>
       <c r="D2">
-        <v>1.023487744805766</v>
+        <v>1.024385095431831</v>
       </c>
       <c r="E2">
-        <v>1.005774352777172</v>
+        <v>1.00753121366251</v>
       </c>
       <c r="F2">
-        <v>1.023324650067115</v>
+        <v>1.023854571639673</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048437119119076</v>
+        <v>1.048892695174614</v>
       </c>
       <c r="J2">
-        <v>1.024198040180055</v>
+        <v>1.02353184579566</v>
       </c>
       <c r="K2">
-        <v>1.034629275786205</v>
+        <v>1.035514847015569</v>
       </c>
       <c r="L2">
-        <v>1.017153823628038</v>
+        <v>1.018886614439324</v>
       </c>
       <c r="M2">
-        <v>1.034468324750671</v>
+        <v>1.03499128420784</v>
       </c>
       <c r="N2">
-        <v>1.025652518874268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01142475005096</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036182322805501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011946755144417</v>
+        <v>1.006470477460705</v>
       </c>
       <c r="D3">
-        <v>1.03142088832881</v>
+        <v>1.027980840735593</v>
       </c>
       <c r="E3">
-        <v>1.0143378204778</v>
+        <v>1.011634086276858</v>
       </c>
       <c r="F3">
-        <v>1.032261862865362</v>
+        <v>1.028276882779034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05197360117207</v>
+        <v>1.050225125144959</v>
       </c>
       <c r="J3">
-        <v>1.032116954300051</v>
+        <v>1.026786291568052</v>
       </c>
       <c r="K3">
-        <v>1.041666918385616</v>
+        <v>1.038267794281112</v>
       </c>
       <c r="L3">
-        <v>1.024790475103295</v>
+        <v>1.022120239885657</v>
       </c>
       <c r="M3">
-        <v>1.042497939916574</v>
+        <v>1.038560301198287</v>
       </c>
       <c r="N3">
-        <v>1.033582678760627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01254332100737</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038126239818612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018083899886467</v>
+        <v>1.009685327874402</v>
       </c>
       <c r="D4">
-        <v>1.036358112575607</v>
+        <v>1.030259647321031</v>
       </c>
       <c r="E4">
-        <v>1.019664713377507</v>
+        <v>1.014238037095569</v>
       </c>
       <c r="F4">
-        <v>1.037828639654338</v>
+        <v>1.031082217790222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054156474088035</v>
+        <v>1.05105451427577</v>
       </c>
       <c r="J4">
-        <v>1.03703606312026</v>
+        <v>1.028844485378734</v>
       </c>
       <c r="K4">
-        <v>1.046036670271373</v>
+        <v>1.04000608306631</v>
       </c>
       <c r="L4">
-        <v>1.029531457375756</v>
+        <v>1.024167605793384</v>
       </c>
       <c r="M4">
-        <v>1.047490976566806</v>
+        <v>1.040819440374621</v>
       </c>
       <c r="N4">
-        <v>1.038508773279589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013250575875879</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039356263521885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02060899650922</v>
+        <v>1.011025543187714</v>
       </c>
       <c r="D5">
-        <v>1.03839008634024</v>
+        <v>1.031211915358276</v>
       </c>
       <c r="E5">
-        <v>1.021856506443075</v>
+        <v>1.01532574127604</v>
       </c>
       <c r="F5">
-        <v>1.040120863604423</v>
+        <v>1.032253891562333</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055050515400015</v>
+        <v>1.051398235317792</v>
       </c>
       <c r="J5">
-        <v>1.039058444250424</v>
+        <v>1.029703594007984</v>
       </c>
       <c r="K5">
-        <v>1.047832691268807</v>
+        <v>1.040732153073819</v>
       </c>
       <c r="L5">
-        <v>1.031479937766888</v>
+        <v>1.02502259831322</v>
       </c>
       <c r="M5">
-        <v>1.049544946337692</v>
+        <v>1.041762777981803</v>
       </c>
       <c r="N5">
-        <v>1.040534026422929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013546683631716</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039876830310624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021029865674561</v>
+        <v>1.011255686291604</v>
       </c>
       <c r="D6">
-        <v>1.038728793894424</v>
+        <v>1.031377646382345</v>
       </c>
       <c r="E6">
-        <v>1.022221823588309</v>
+        <v>1.015513449846971</v>
       </c>
       <c r="F6">
-        <v>1.040503020527184</v>
+        <v>1.032456281581943</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05519928614308</v>
+        <v>1.051458799897516</v>
       </c>
       <c r="J6">
-        <v>1.039395429384502</v>
+        <v>1.029853114061717</v>
       </c>
       <c r="K6">
-        <v>1.048131927627445</v>
+        <v>1.040859896808519</v>
       </c>
       <c r="L6">
-        <v>1.031804569709511</v>
+        <v>1.02517124483116</v>
       </c>
       <c r="M6">
-        <v>1.04988726414813</v>
+        <v>1.041926836708172</v>
       </c>
       <c r="N6">
-        <v>1.04087149011455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013599355501729</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039975901024043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018117850927769</v>
+        <v>1.00971961150137</v>
       </c>
       <c r="D7">
-        <v>1.036385431281933</v>
+        <v>1.030289822125704</v>
       </c>
       <c r="E7">
-        <v>1.019694182862199</v>
+        <v>1.014268146168379</v>
       </c>
       <c r="F7">
-        <v>1.037859452672915</v>
+        <v>1.031115150634164</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05416851120142</v>
+        <v>1.051067990546712</v>
       </c>
       <c r="J7">
-        <v>1.037063261226585</v>
+        <v>1.028871913640396</v>
       </c>
       <c r="K7">
-        <v>1.046060826215484</v>
+        <v>1.040033036074033</v>
       </c>
       <c r="L7">
-        <v>1.029557664271693</v>
+        <v>1.024194419307614</v>
       </c>
       <c r="M7">
-        <v>1.047518594809564</v>
+        <v>1.040849124308556</v>
       </c>
       <c r="N7">
-        <v>1.038536010010345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013263141502082</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039395443630017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005468160752363</v>
+        <v>1.003144389689929</v>
       </c>
       <c r="D8">
-        <v>1.026211492235254</v>
+        <v>1.025632125713623</v>
       </c>
       <c r="E8">
-        <v>1.008715117808988</v>
+        <v>1.008948265283544</v>
       </c>
       <c r="F8">
-        <v>1.026392161378264</v>
+        <v>1.025382562871242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049655158135487</v>
+        <v>1.049360905510007</v>
       </c>
       <c r="J8">
-        <v>1.026918923692834</v>
+        <v>1.024661771424083</v>
       </c>
       <c r="K8">
-        <v>1.037047742176926</v>
+        <v>1.036475735925011</v>
       </c>
       <c r="L8">
-        <v>1.019778317317031</v>
+        <v>1.020008375669448</v>
       </c>
       <c r="M8">
-        <v>1.037226118222038</v>
+        <v>1.036229346728844</v>
       </c>
       <c r="N8">
-        <v>1.028377266353725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011817253400494</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036884723461537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.981053284864266</v>
+        <v>0.9909571220535253</v>
       </c>
       <c r="D9">
-        <v>1.006610247149879</v>
+        <v>1.017011228840004</v>
       </c>
       <c r="E9">
-        <v>0.9875370354732462</v>
+        <v>0.9991370248632595</v>
       </c>
       <c r="F9">
-        <v>1.004336156577337</v>
+        <v>1.014799148459443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040810337734103</v>
+        <v>1.046078750280897</v>
       </c>
       <c r="J9">
-        <v>1.007293310224955</v>
+        <v>1.016833299210016</v>
       </c>
       <c r="K9">
-        <v>1.019596980428662</v>
+        <v>1.029834210804266</v>
       </c>
       <c r="L9">
-        <v>1.000835604625374</v>
+        <v>1.012244118770831</v>
       </c>
       <c r="M9">
-        <v>1.017359272242206</v>
+        <v>1.027656597690514</v>
       </c>
       <c r="N9">
-        <v>1.008723782263633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009122366353435</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032185477016003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.962966828167136</v>
+        <v>0.9824032834264317</v>
       </c>
       <c r="D10">
-        <v>0.9921298281801283</v>
+        <v>1.010982008691599</v>
       </c>
       <c r="E10">
-        <v>0.9718674723783723</v>
+        <v>0.9922920399979138</v>
       </c>
       <c r="F10">
-        <v>0.9880651514361656</v>
+        <v>1.007408076877067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034173730944449</v>
+        <v>1.043705410485825</v>
       </c>
       <c r="J10">
-        <v>0.9927309056446635</v>
+        <v>1.011332883909128</v>
       </c>
       <c r="K10">
-        <v>1.006642649954156</v>
+        <v>1.025155770721415</v>
       </c>
       <c r="L10">
-        <v>0.9867639503966593</v>
+        <v>1.006801872758876</v>
       </c>
       <c r="M10">
-        <v>1.002653289461817</v>
+        <v>1.021644852127143</v>
       </c>
       <c r="N10">
-        <v>0.9941406973985055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00723019280004</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028894401920502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.954596012250049</v>
+        <v>0.9786062850313655</v>
       </c>
       <c r="D11">
-        <v>0.9854419796050695</v>
+        <v>1.008318166694059</v>
       </c>
       <c r="E11">
-        <v>0.9646228443686206</v>
+        <v>0.9892678036823597</v>
       </c>
       <c r="F11">
-        <v>0.9805550535332869</v>
+        <v>1.004140121487948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031084177696443</v>
+        <v>1.042640964170843</v>
       </c>
       <c r="J11">
-        <v>0.9859877203843359</v>
+        <v>1.008896968923314</v>
       </c>
       <c r="K11">
-        <v>1.000643762003325</v>
+        <v>1.023084901171454</v>
       </c>
       <c r="L11">
-        <v>0.9802442502515639</v>
+        <v>1.004394991821328</v>
       </c>
       <c r="M11">
-        <v>0.9958532318893257</v>
+        <v>1.018984381260208</v>
       </c>
       <c r="N11">
-        <v>0.9873879360416536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006397293052209</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027463331891036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9513938635322822</v>
+        <v>0.977165659917878</v>
       </c>
       <c r="D12">
-        <v>0.9828861987378463</v>
+        <v>1.0073046848745</v>
       </c>
       <c r="E12">
-        <v>0.9618529700856477</v>
+        <v>0.9881200201252978</v>
       </c>
       <c r="F12">
-        <v>0.9776856880837002</v>
+        <v>1.002899886311266</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029899827075151</v>
+        <v>1.042231972764937</v>
       </c>
       <c r="J12">
-        <v>0.9834079365222552</v>
+        <v>1.007968866117373</v>
       </c>
       <c r="K12">
-        <v>0.9983487846024678</v>
+        <v>1.022293264083533</v>
       </c>
       <c r="L12">
-        <v>0.9777494100286834</v>
+        <v>1.003478416775338</v>
       </c>
       <c r="M12">
-        <v>0.9932532562059988</v>
+        <v>1.017971739163274</v>
       </c>
       <c r="N12">
-        <v>0.9848044885905837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00607730266943</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02690360780213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9520851553569799</v>
+        <v>0.9774731612152976</v>
       </c>
       <c r="D13">
-        <v>0.9834378260898292</v>
+        <v>1.007520237580737</v>
       </c>
       <c r="E13">
-        <v>0.9624508689557936</v>
+        <v>0.9883645331618822</v>
       </c>
       <c r="F13">
-        <v>0.9783049704376471</v>
+        <v>1.003164180812278</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030155616941365</v>
+        <v>1.042318837772858</v>
       </c>
       <c r="J13">
-        <v>0.9839648773919476</v>
+        <v>1.008166236167793</v>
       </c>
       <c r="K13">
-        <v>0.9988442351675246</v>
+        <v>1.022461211228998</v>
       </c>
       <c r="L13">
-        <v>0.9782880375899932</v>
+        <v>1.003673301642489</v>
       </c>
       <c r="M13">
-        <v>0.9938144834690325</v>
+        <v>1.018187179063653</v>
       </c>
       <c r="N13">
-        <v>0.9853622203801931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006144818842286</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027019834559454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9543332934612052</v>
+        <v>0.9784865754233356</v>
       </c>
       <c r="D14">
-        <v>0.9852322368661878</v>
+        <v>1.008233618139184</v>
       </c>
       <c r="E14">
-        <v>0.9643955596294872</v>
+        <v>0.9891722214395027</v>
       </c>
       <c r="F14">
-        <v>0.9803195636707178</v>
+        <v>1.004036875944287</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030987056935537</v>
+        <v>1.042606795497775</v>
       </c>
       <c r="J14">
-        <v>0.9857760670053073</v>
+        <v>1.008819534738833</v>
       </c>
       <c r="K14">
-        <v>1.000455473225025</v>
+        <v>1.023018680579345</v>
       </c>
       <c r="L14">
-        <v>0.980039577088642</v>
+        <v>1.004318505209885</v>
       </c>
       <c r="M14">
-        <v>0.9956398894916111</v>
+        <v>1.01889993164118</v>
       </c>
       <c r="N14">
-        <v>0.9871759820905501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006370368958271</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027415431752773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.955705743958526</v>
+        <v>0.9791131796485305</v>
       </c>
       <c r="D15">
-        <v>0.9863280459162</v>
+        <v>1.00867629525416</v>
       </c>
       <c r="E15">
-        <v>0.9655829630201409</v>
+        <v>0.9896726425252321</v>
       </c>
       <c r="F15">
-        <v>0.9815499150281665</v>
+        <v>1.004577404861423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031494319589727</v>
+        <v>1.042785609333946</v>
       </c>
       <c r="J15">
-        <v>0.9868817411998385</v>
+        <v>1.00922492564125</v>
       </c>
       <c r="K15">
-        <v>1.001439094010722</v>
+        <v>1.023365394467493</v>
       </c>
       <c r="L15">
-        <v>0.9811087642812261</v>
+        <v>1.004718954256892</v>
       </c>
       <c r="M15">
-        <v>0.9967544512382028</v>
+        <v>1.019342060536669</v>
       </c>
       <c r="N15">
-        <v>0.9882832264692599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006511376954847</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027666507033678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1091,93 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9635100554724586</v>
+        <v>0.9826929102334663</v>
       </c>
       <c r="D16">
-        <v>0.9925641626646242</v>
+        <v>1.011198056154247</v>
       </c>
       <c r="E16">
-        <v>0.9723377965286846</v>
+        <v>0.9925297423090657</v>
       </c>
       <c r="F16">
-        <v>0.9885529774713772</v>
+        <v>1.00766392843472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034373877582514</v>
+        <v>1.043795704815338</v>
       </c>
       <c r="J16">
-        <v>0.9931684571638589</v>
+        <v>1.011531386115558</v>
       </c>
       <c r="K16">
-        <v>1.007031907168567</v>
+        <v>1.025331934750443</v>
       </c>
       <c r="L16">
-        <v>0.9871869239818472</v>
+        <v>1.006998118636359</v>
       </c>
       <c r="M16">
-        <v>1.003094737956122</v>
+        <v>1.021859898081066</v>
       </c>
       <c r="N16">
-        <v>0.9945788702910461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007307027292147</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029060134742693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9682535091862154</v>
+        <v>0.9849065481572447</v>
       </c>
       <c r="D17">
-        <v>0.9963583734153529</v>
+        <v>1.012759060475602</v>
       </c>
       <c r="E17">
-        <v>0.9764455388853658</v>
+        <v>0.9942993162806506</v>
       </c>
       <c r="F17">
-        <v>0.9928149954060607</v>
+        <v>1.009575188002759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036119573368334</v>
+        <v>1.044416146807766</v>
       </c>
       <c r="J17">
-        <v>0.9969887985009669</v>
+        <v>1.012957361970643</v>
       </c>
       <c r="K17">
-        <v>1.010430556244632</v>
+        <v>1.026547015379729</v>
       </c>
       <c r="L17">
-        <v>0.9908795643967323</v>
+        <v>1.008408042927119</v>
       </c>
       <c r="M17">
-        <v>1.006950187627411</v>
+        <v>1.02341738687496</v>
       </c>
       <c r="N17">
-        <v>0.9984046369510516</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007798919616774</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029921857173939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9709691711815833</v>
+        <v>0.9861743643332019</v>
       </c>
       <c r="D18">
-        <v>0.9985318518435751</v>
+        <v>1.013649723256018</v>
       </c>
       <c r="E18">
-        <v>0.9787979317347701</v>
+        <v>0.9953117557963647</v>
       </c>
       <c r="F18">
-        <v>0.995256897816338</v>
+        <v>1.010668769607576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037117314990245</v>
+        <v>1.04476704440043</v>
       </c>
       <c r="J18">
-        <v>0.9991756412092818</v>
+        <v>1.013770058453613</v>
       </c>
       <c r="K18">
-        <v>1.012375975650031</v>
+        <v>1.027236932020405</v>
       </c>
       <c r="L18">
-        <v>0.9929929595238643</v>
+        <v>1.009211908142868</v>
       </c>
       <c r="M18">
-        <v>1.009158008740506</v>
+        <v>1.02430585270962</v>
       </c>
       <c r="N18">
-        <v>1.000594585226847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008076575861762</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030397921959542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718867922255923</v>
+        <v>0.9866142740041723</v>
       </c>
       <c r="D19">
-        <v>0.999266471636115</v>
+        <v>1.013961895686667</v>
       </c>
       <c r="E19">
-        <v>0.9795929112217003</v>
+        <v>0.9956647906105934</v>
       </c>
       <c r="F19">
-        <v>0.9960823203473312</v>
+        <v>1.011049893894391</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03745416032633</v>
+        <v>1.044890821195935</v>
       </c>
       <c r="J19">
-        <v>0.9999145119875322</v>
+        <v>1.014055046262695</v>
       </c>
       <c r="K19">
-        <v>1.013033267272081</v>
+        <v>1.02748062839487</v>
       </c>
       <c r="L19">
-        <v>0.9937069551310277</v>
+        <v>1.009493829613441</v>
       </c>
       <c r="M19">
-        <v>1.009904113854368</v>
+        <v>1.024617043907372</v>
       </c>
       <c r="N19">
-        <v>1.001334505286352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00817603455891</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03057666941329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677499461707755</v>
+        <v>0.9846692491144876</v>
       </c>
       <c r="D20">
-        <v>0.9959554468611901</v>
+        <v>1.012591363609319</v>
       </c>
       <c r="E20">
-        <v>0.97600938978145</v>
+        <v>0.994109359636294</v>
       </c>
       <c r="F20">
-        <v>0.9923623441463799</v>
+        <v>1.009370057323341</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035934424857253</v>
+        <v>1.044349568353826</v>
       </c>
       <c r="J20">
-        <v>0.9965832655978641</v>
+        <v>1.012804210801325</v>
       </c>
       <c r="K20">
-        <v>1.010069789648605</v>
+        <v>1.026416364344845</v>
       </c>
       <c r="L20">
-        <v>0.9904876233766151</v>
+        <v>1.008256585776759</v>
       </c>
       <c r="M20">
-        <v>1.006540835302055</v>
+        <v>1.023250122546935</v>
       </c>
       <c r="N20">
-        <v>0.9979985281447112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007745881287859</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029828134868614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9536739439853379</v>
+        <v>0.9782019720473949</v>
       </c>
       <c r="D21">
-        <v>0.984705885158301</v>
+        <v>1.008037338623121</v>
       </c>
       <c r="E21">
-        <v>0.9638251642640099</v>
+        <v>0.9889476104697009</v>
       </c>
       <c r="F21">
-        <v>0.9797286092785744</v>
+        <v>1.003793781735686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030743272465441</v>
+        <v>1.042529010843521</v>
       </c>
       <c r="J21">
-        <v>0.9852448738631018</v>
+        <v>1.008640201663984</v>
       </c>
       <c r="K21">
-        <v>0.9999829202404757</v>
+        <v>1.022868024442123</v>
       </c>
       <c r="L21">
-        <v>0.9795258935277237</v>
+        <v>1.004141443356241</v>
       </c>
       <c r="M21">
-        <v>0.9951044829317869</v>
+        <v>1.018703634462706</v>
       </c>
       <c r="N21">
-        <v>0.986644034593154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006311429698797</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027322565677531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442786736669425</v>
+        <v>0.9740111205925862</v>
       </c>
       <c r="D22">
-        <v>0.9772126062502182</v>
+        <v>1.005086895061752</v>
       </c>
       <c r="E22">
-        <v>0.9557014374407452</v>
+        <v>0.9856095934322326</v>
       </c>
       <c r="F22">
-        <v>0.971317062754691</v>
+        <v>1.000186867689536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02726387706983</v>
+        <v>1.041331830370592</v>
       </c>
       <c r="J22">
-        <v>0.9776754711637803</v>
+        <v>1.005935942788532</v>
       </c>
       <c r="K22">
-        <v>0.9932494174343445</v>
+        <v>1.020558248663372</v>
       </c>
       <c r="L22">
-        <v>0.9722046774865654</v>
+        <v>1.001471620830212</v>
       </c>
       <c r="M22">
-        <v>0.9874789838318733</v>
+        <v>1.015754623603246</v>
       </c>
       <c r="N22">
-        <v>0.9790638824737768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005376042894306</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025675786989229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493156224693952</v>
+        <v>0.9762274344136683</v>
       </c>
       <c r="D23">
-        <v>0.9812282508668277</v>
+        <v>1.0066417561831</v>
       </c>
       <c r="E23">
-        <v>0.9600557414704441</v>
+        <v>0.9873712137165008</v>
       </c>
       <c r="F23">
-        <v>0.9758244868485751</v>
+        <v>1.002091045344113</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029130497621664</v>
+        <v>1.041962614520114</v>
       </c>
       <c r="J23">
-        <v>0.9817335796013429</v>
+        <v>1.007361174579917</v>
       </c>
       <c r="K23">
-        <v>0.9968593061615795</v>
+        <v>1.021772986794609</v>
       </c>
       <c r="L23">
-        <v>0.9761300285645543</v>
+        <v>1.0028783492164</v>
       </c>
       <c r="M23">
-        <v>0.9915662532596883</v>
+        <v>1.017309337763998</v>
       </c>
       <c r="N23">
-        <v>0.9831277538907924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005865445208503</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026524932767201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679776417100446</v>
+        <v>0.9847506512010379</v>
       </c>
       <c r="D24">
-        <v>0.9961376338151379</v>
+        <v>1.012640726966536</v>
       </c>
       <c r="E24">
-        <v>0.9762066007504067</v>
+        <v>0.9941702595418415</v>
       </c>
       <c r="F24">
-        <v>0.9925670131933824</v>
+        <v>1.009436346327822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036018148511785</v>
+        <v>1.044366290112865</v>
       </c>
       <c r="J24">
-        <v>0.9967666360154738</v>
+        <v>1.012848617802712</v>
       </c>
       <c r="K24">
-        <v>1.010232918143966</v>
+        <v>1.026449435111689</v>
       </c>
       <c r="L24">
-        <v>0.990664849019538</v>
+        <v>1.00830053130196</v>
       </c>
       <c r="M24">
-        <v>1.006725930016183</v>
+        <v>1.023299751149181</v>
       </c>
       <c r="N24">
-        <v>0.9981821589693469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007755630430696</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029823888743108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876521982791742</v>
+        <v>0.9942072675072248</v>
       </c>
       <c r="D25">
-        <v>1.011902645144139</v>
+        <v>1.019316049369812</v>
       </c>
       <c r="E25">
-        <v>0.9932587411503215</v>
+        <v>1.001751060480477</v>
       </c>
       <c r="F25">
-        <v>1.010287318275971</v>
+        <v>1.017620079427929</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043215642759254</v>
+        <v>1.046973381971522</v>
       </c>
       <c r="J25">
-        <v>1.012602382587203</v>
+        <v>1.018931165303524</v>
       </c>
       <c r="K25">
-        <v>1.024318955655831</v>
+        <v>1.031621730083451</v>
       </c>
       <c r="L25">
-        <v>1.005962615726126</v>
+        <v>1.014322254171736</v>
       </c>
       <c r="M25">
-        <v>1.022728008623982</v>
+        <v>1.029950888238193</v>
       </c>
       <c r="N25">
-        <v>1.014040394117593</v>
+        <v>1.009850174267299</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033478124291619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001392710825506</v>
+        <v>1.001339391914027</v>
       </c>
       <c r="D2">
-        <v>1.024385095431831</v>
+        <v>1.023882287245193</v>
       </c>
       <c r="E2">
-        <v>1.00753121366251</v>
+        <v>1.007521089310933</v>
       </c>
       <c r="F2">
-        <v>1.023854571639673</v>
+        <v>1.023442669986549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048892695174614</v>
+        <v>1.048637422791443</v>
       </c>
       <c r="J2">
-        <v>1.02353184579566</v>
+        <v>1.023480115667918</v>
       </c>
       <c r="K2">
-        <v>1.035514847015569</v>
+        <v>1.035018635934075</v>
       </c>
       <c r="L2">
-        <v>1.018886614439324</v>
+        <v>1.018876628494874</v>
       </c>
       <c r="M2">
-        <v>1.03499128420784</v>
+        <v>1.034584793340793</v>
       </c>
       <c r="N2">
-        <v>1.01142475005096</v>
+        <v>1.013223391627525</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036182322805501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035840258346823</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021336256169857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006470477460705</v>
+        <v>1.006042724485141</v>
       </c>
       <c r="D3">
-        <v>1.027980840735593</v>
+        <v>1.027085478744092</v>
       </c>
       <c r="E3">
-        <v>1.011634086276858</v>
+        <v>1.011294353274589</v>
       </c>
       <c r="F3">
-        <v>1.028276882779034</v>
+        <v>1.027471469653023</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050225125144959</v>
+        <v>1.049770067660249</v>
       </c>
       <c r="J3">
-        <v>1.026786291568052</v>
+        <v>1.026370003344444</v>
       </c>
       <c r="K3">
-        <v>1.038267794281112</v>
+        <v>1.037383139456925</v>
       </c>
       <c r="L3">
-        <v>1.022120239885657</v>
+        <v>1.021784731920162</v>
       </c>
       <c r="M3">
-        <v>1.038560301198287</v>
+        <v>1.037764511663743</v>
       </c>
       <c r="N3">
-        <v>1.01254332100737</v>
+        <v>1.014008664858721</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038126239818612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037509225310523</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021866439778875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009685327874402</v>
+        <v>1.009023905581184</v>
       </c>
       <c r="D4">
-        <v>1.030259647321031</v>
+        <v>1.029117962145923</v>
       </c>
       <c r="E4">
-        <v>1.014238037095569</v>
+        <v>1.013692325765836</v>
       </c>
       <c r="F4">
-        <v>1.031082217790222</v>
+        <v>1.030030407961291</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05105451427577</v>
+        <v>1.050473858377384</v>
       </c>
       <c r="J4">
-        <v>1.028844485378734</v>
+        <v>1.028199562173504</v>
       </c>
       <c r="K4">
-        <v>1.04000608306631</v>
+        <v>1.038877215339816</v>
       </c>
       <c r="L4">
-        <v>1.024167605793384</v>
+        <v>1.023628258202396</v>
       </c>
       <c r="M4">
-        <v>1.040819440374621</v>
+        <v>1.039779414519273</v>
       </c>
       <c r="N4">
-        <v>1.013250575875879</v>
+        <v>1.014505853990813</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039356263521885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038566646349295</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022198973289463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011025543187714</v>
+        <v>1.010267245677681</v>
       </c>
       <c r="D5">
-        <v>1.031211915358276</v>
+        <v>1.029967964466132</v>
       </c>
       <c r="E5">
-        <v>1.01532574127604</v>
+        <v>1.014694520604114</v>
       </c>
       <c r="F5">
-        <v>1.032253891562333</v>
+        <v>1.031099869080665</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051398235317792</v>
+        <v>1.050765379489297</v>
       </c>
       <c r="J5">
-        <v>1.029703594007984</v>
+        <v>1.028963633779294</v>
       </c>
       <c r="K5">
-        <v>1.040732153073819</v>
+        <v>1.039501790719789</v>
       </c>
       <c r="L5">
-        <v>1.02502259831322</v>
+        <v>1.024398536238867</v>
       </c>
       <c r="M5">
-        <v>1.041762777981803</v>
+        <v>1.040621329106066</v>
       </c>
       <c r="N5">
-        <v>1.013546683631716</v>
+        <v>1.014714145196853</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039876830310624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039016158086559</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022337990790325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011255686291604</v>
+        <v>1.010480524892247</v>
       </c>
       <c r="D6">
-        <v>1.031377646382345</v>
+        <v>1.0301160675626</v>
       </c>
       <c r="E6">
-        <v>1.015513449846971</v>
+        <v>1.014867270760783</v>
       </c>
       <c r="F6">
-        <v>1.032456281581943</v>
+        <v>1.031284605196191</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051458799897516</v>
+        <v>1.050816943711424</v>
       </c>
       <c r="J6">
-        <v>1.029853114061717</v>
+        <v>1.029096599022368</v>
       </c>
       <c r="K6">
-        <v>1.040859896808519</v>
+        <v>1.039612035023644</v>
       </c>
       <c r="L6">
-        <v>1.02517124483116</v>
+        <v>1.024532359319167</v>
       </c>
       <c r="M6">
-        <v>1.041926836708172</v>
+        <v>1.040767865844622</v>
       </c>
       <c r="N6">
-        <v>1.013599355501729</v>
+        <v>1.014751177061453</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039975901024043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039103725336905</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.0223632325178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00971961150137</v>
+        <v>1.009066763648695</v>
       </c>
       <c r="D7">
-        <v>1.030289822125704</v>
+        <v>1.029153619757126</v>
       </c>
       <c r="E7">
-        <v>1.014268146168379</v>
+        <v>1.013730312904032</v>
       </c>
       <c r="F7">
-        <v>1.031115150634164</v>
+        <v>1.030069707737868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051067990546712</v>
+        <v>1.050490120555713</v>
       </c>
       <c r="J7">
-        <v>1.028871913640396</v>
+        <v>1.028235343363193</v>
       </c>
       <c r="K7">
-        <v>1.040033036074033</v>
+        <v>1.038909584342305</v>
       </c>
       <c r="L7">
-        <v>1.024194419307614</v>
+        <v>1.023662855291958</v>
       </c>
       <c r="M7">
-        <v>1.040849124308556</v>
+        <v>1.039815389138651</v>
       </c>
       <c r="N7">
-        <v>1.013263141502082</v>
+        <v>1.014544436116836</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039395443630017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038611657695756</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022209109976503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003144389689929</v>
+        <v>1.00299662053321</v>
       </c>
       <c r="D8">
-        <v>1.025632125713623</v>
+        <v>1.025018973640416</v>
       </c>
       <c r="E8">
-        <v>1.008948265283544</v>
+        <v>1.008856549876728</v>
       </c>
       <c r="F8">
-        <v>1.025382562871242</v>
+        <v>1.024862813682171</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049360905510007</v>
+        <v>1.049049499465787</v>
       </c>
       <c r="J8">
-        <v>1.024661771424083</v>
+        <v>1.024518252871599</v>
       </c>
       <c r="K8">
-        <v>1.036475735925011</v>
+        <v>1.035870384652126</v>
       </c>
       <c r="L8">
-        <v>1.020008375669448</v>
+        <v>1.019917875245808</v>
       </c>
       <c r="M8">
-        <v>1.036229346728844</v>
+        <v>1.035716213294914</v>
       </c>
       <c r="N8">
-        <v>1.011817253400494</v>
+        <v>1.013589694520345</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036884723461537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036467750171546</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02153319685745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9909571220535253</v>
+        <v>0.9917370098569132</v>
       </c>
       <c r="D9">
-        <v>1.017011228840004</v>
+        <v>1.017359139120762</v>
       </c>
       <c r="E9">
-        <v>0.9991370248632595</v>
+        <v>0.9998603659251237</v>
       </c>
       <c r="F9">
-        <v>1.014799148459443</v>
+        <v>1.015246971104335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046078750280897</v>
+        <v>1.046255014041095</v>
       </c>
       <c r="J9">
-        <v>1.016833299210016</v>
+        <v>1.017584968193016</v>
       </c>
       <c r="K9">
-        <v>1.029834210804266</v>
+        <v>1.030176717591688</v>
       </c>
       <c r="L9">
-        <v>1.012244118770831</v>
+        <v>1.012955709001017</v>
       </c>
       <c r="M9">
-        <v>1.027656597690514</v>
+        <v>1.028097427137844</v>
       </c>
       <c r="N9">
-        <v>1.009122366353435</v>
+        <v>1.011713945317111</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032185477016003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032438461893527</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020240826073611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9824032834264317</v>
+        <v>0.9839132265364018</v>
       </c>
       <c r="D10">
-        <v>1.010982008691599</v>
+        <v>1.012059000760444</v>
       </c>
       <c r="E10">
-        <v>0.9922920399979138</v>
+        <v>0.993656903678457</v>
       </c>
       <c r="F10">
-        <v>1.007408076877067</v>
+        <v>1.008598234816223</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043705410485825</v>
+        <v>1.044250177670548</v>
       </c>
       <c r="J10">
-        <v>1.011332883909128</v>
+        <v>1.012779960216989</v>
       </c>
       <c r="K10">
-        <v>1.025155770721415</v>
+        <v>1.026213887017757</v>
       </c>
       <c r="L10">
-        <v>1.006801872758876</v>
+        <v>1.008141636979994</v>
       </c>
       <c r="M10">
-        <v>1.021644852127143</v>
+        <v>1.022813961669787</v>
       </c>
       <c r="N10">
-        <v>1.00723019280004</v>
+        <v>1.010531099844099</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028894401920502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029655074948992</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019333692361275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9786062850313655</v>
+        <v>0.9805341718730225</v>
       </c>
       <c r="D11">
-        <v>1.008318166694059</v>
+        <v>1.0097860113131</v>
       </c>
       <c r="E11">
-        <v>0.9892678036823597</v>
+        <v>0.9910040165934171</v>
       </c>
       <c r="F11">
-        <v>1.004140121487948</v>
+        <v>1.005735639003467</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042640964170843</v>
+        <v>1.04338292206468</v>
       </c>
       <c r="J11">
-        <v>1.008896968923314</v>
+        <v>1.010739788708317</v>
       </c>
       <c r="K11">
-        <v>1.023084901171454</v>
+        <v>1.024525707737879</v>
       </c>
       <c r="L11">
-        <v>1.004394991821328</v>
+        <v>1.006097601713275</v>
       </c>
       <c r="M11">
-        <v>1.018984381260208</v>
+        <v>1.02055019415453</v>
       </c>
       <c r="N11">
-        <v>1.006397293052209</v>
+        <v>1.010220575808453</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027463331891036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028497799734693</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018954459391787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.977165659917878</v>
+        <v>0.9792623376898908</v>
       </c>
       <c r="D12">
-        <v>1.0073046848745</v>
+        <v>1.008927979934416</v>
       </c>
       <c r="E12">
-        <v>0.9881200201252978</v>
+        <v>0.9900068557727304</v>
       </c>
       <c r="F12">
-        <v>1.002899886311266</v>
+        <v>1.004657377976846</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042231972764937</v>
+        <v>1.043052296938836</v>
       </c>
       <c r="J12">
-        <v>1.007968866117373</v>
+        <v>1.009971042900969</v>
       </c>
       <c r="K12">
-        <v>1.022293264083533</v>
+        <v>1.023886109770449</v>
       </c>
       <c r="L12">
-        <v>1.003478416775338</v>
+        <v>1.005328046024751</v>
       </c>
       <c r="M12">
-        <v>1.017971739163274</v>
+        <v>1.019695890639878</v>
       </c>
       <c r="N12">
-        <v>1.00607730266943</v>
+        <v>1.010118900123736</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02690360780213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028045585244711</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018809760218339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9774731612152976</v>
+        <v>0.9795335237838074</v>
       </c>
       <c r="D13">
-        <v>1.007520237580737</v>
+        <v>1.009110107950236</v>
       </c>
       <c r="E13">
-        <v>0.9883645331618822</v>
+        <v>0.9902189888993195</v>
       </c>
       <c r="F13">
-        <v>1.003164180812278</v>
+        <v>1.00488683072311</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042318837772858</v>
+        <v>1.043122314945465</v>
       </c>
       <c r="J13">
-        <v>1.008166236167793</v>
+        <v>1.010134154639106</v>
       </c>
       <c r="K13">
-        <v>1.022461211228998</v>
+        <v>1.024021374495113</v>
       </c>
       <c r="L13">
-        <v>1.003673301642489</v>
+        <v>1.005491334877282</v>
       </c>
       <c r="M13">
-        <v>1.018187179063653</v>
+        <v>1.019877280392965</v>
       </c>
       <c r="N13">
-        <v>1.006144818842286</v>
+        <v>1.010139145766631</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027019834559454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028138461392881</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018840061754569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9784865754233356</v>
+        <v>0.9804283506669903</v>
       </c>
       <c r="D14">
-        <v>1.008233618139184</v>
+        <v>1.009714265097093</v>
       </c>
       <c r="E14">
-        <v>0.9891722214395027</v>
+        <v>0.9909208380859128</v>
       </c>
       <c r="F14">
-        <v>1.004036875944287</v>
+        <v>1.005645726071391</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042606795497775</v>
+        <v>1.043355208775898</v>
       </c>
       <c r="J14">
-        <v>1.008819534738833</v>
+        <v>1.010675478692578</v>
       </c>
       <c r="K14">
-        <v>1.023018680579345</v>
+        <v>1.024472012439374</v>
       </c>
       <c r="L14">
-        <v>1.004318505209885</v>
+        <v>1.006033226190446</v>
       </c>
       <c r="M14">
-        <v>1.01889993164118</v>
+        <v>1.020478782138077</v>
       </c>
       <c r="N14">
-        <v>1.006370368958271</v>
+        <v>1.010211475920108</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027415431752773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028458653443444</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018942182583305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9791131796485305</v>
+        <v>0.9809826305398499</v>
       </c>
       <c r="D15">
-        <v>1.00867629525416</v>
+        <v>1.010090202943665</v>
       </c>
       <c r="E15">
-        <v>0.9896726425252321</v>
+        <v>0.9913566800267241</v>
       </c>
       <c r="F15">
-        <v>1.004577404861423</v>
+        <v>1.006116775996101</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042785609333946</v>
+        <v>1.043500367754272</v>
       </c>
       <c r="J15">
-        <v>1.00922492564125</v>
+        <v>1.011012504234812</v>
       </c>
       <c r="K15">
-        <v>1.023365394467493</v>
+        <v>1.024753424217198</v>
       </c>
       <c r="L15">
-        <v>1.004718954256892</v>
+        <v>1.006370612805608</v>
       </c>
       <c r="M15">
-        <v>1.019342060536669</v>
+        <v>1.020852961750641</v>
       </c>
       <c r="N15">
-        <v>1.006511376954847</v>
+        <v>1.010259936057421</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027666507033678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.02866411878688</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019006570729407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9826929102334663</v>
+        <v>0.9841706634443032</v>
       </c>
       <c r="D16">
-        <v>1.011198056154247</v>
+        <v>1.012245658683892</v>
       </c>
       <c r="E16">
-        <v>0.9925297423090657</v>
+        <v>0.9938653818238623</v>
       </c>
       <c r="F16">
-        <v>1.00766392843472</v>
+        <v>1.008823473408959</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043795704815338</v>
+        <v>1.044325631256557</v>
       </c>
       <c r="J16">
-        <v>1.011531386115558</v>
+        <v>1.012947859190823</v>
       </c>
       <c r="K16">
-        <v>1.025331934750443</v>
+        <v>1.02636123984194</v>
       </c>
       <c r="L16">
-        <v>1.006998118636359</v>
+        <v>1.008309282817654</v>
       </c>
       <c r="M16">
-        <v>1.021859898081066</v>
+        <v>1.022999008865455</v>
       </c>
       <c r="N16">
-        <v>1.007307027292147</v>
+        <v>1.010569215001984</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029060134742693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029804393641376</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019371794583793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9849065481572447</v>
+        <v>0.9861615067235756</v>
       </c>
       <c r="D17">
-        <v>1.012759060475602</v>
+        <v>1.013594012821919</v>
       </c>
       <c r="E17">
-        <v>0.9942993162806506</v>
+        <v>0.9954375307531615</v>
       </c>
       <c r="F17">
-        <v>1.009575188002759</v>
+        <v>1.010515567804806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044416146807766</v>
+        <v>1.044838676673733</v>
       </c>
       <c r="J17">
-        <v>1.012957361970643</v>
+        <v>1.014162065008584</v>
       </c>
       <c r="K17">
-        <v>1.026547015379729</v>
+        <v>1.027367815344064</v>
       </c>
       <c r="L17">
-        <v>1.008408042927119</v>
+        <v>1.009526032304974</v>
       </c>
       <c r="M17">
-        <v>1.02341738687496</v>
+        <v>1.024341699383133</v>
       </c>
       <c r="N17">
-        <v>1.007798919616774</v>
+        <v>1.010801077993822</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029921857173939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030518929949177</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019601259243596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9861743643332019</v>
+        <v>0.9873098597640171</v>
       </c>
       <c r="D18">
-        <v>1.013649723256018</v>
+        <v>1.014368473943856</v>
       </c>
       <c r="E18">
-        <v>0.9953117557963647</v>
+        <v>0.9963445895376812</v>
       </c>
       <c r="F18">
-        <v>1.010668769607576</v>
+        <v>1.011490007439854</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04476704440043</v>
+        <v>1.045130856423571</v>
       </c>
       <c r="J18">
-        <v>1.013770058453613</v>
+        <v>1.014861008894668</v>
       </c>
       <c r="K18">
-        <v>1.027236932020405</v>
+        <v>1.027943713779227</v>
       </c>
       <c r="L18">
-        <v>1.009211908142868</v>
+        <v>1.010226719858675</v>
       </c>
       <c r="M18">
-        <v>1.02430585270962</v>
+        <v>1.025113312594795</v>
       </c>
       <c r="N18">
-        <v>1.008076575861762</v>
+        <v>1.010946792650959</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030397921959542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030913243100231</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019731363344996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9866142740041723</v>
+        <v>0.9877090994718454</v>
       </c>
       <c r="D19">
-        <v>1.013961895686667</v>
+        <v>1.014641033465806</v>
       </c>
       <c r="E19">
-        <v>0.9956647906105934</v>
+        <v>0.996661643569475</v>
       </c>
       <c r="F19">
-        <v>1.011049893894391</v>
+        <v>1.011830548531375</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044890821195935</v>
+        <v>1.045234610217223</v>
       </c>
       <c r="J19">
-        <v>1.014055046262695</v>
+        <v>1.015107225602892</v>
       </c>
       <c r="K19">
-        <v>1.02748062839487</v>
+        <v>1.028148525715645</v>
       </c>
       <c r="L19">
-        <v>1.009493829613441</v>
+        <v>1.010473396948515</v>
       </c>
       <c r="M19">
-        <v>1.024617043907372</v>
+        <v>1.025384683529551</v>
       </c>
       <c r="N19">
-        <v>1.00817603455891</v>
+        <v>1.01100259076912</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03057666941329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031065114614933</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019778848460428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9846692491144876</v>
+        <v>0.9859473683409703</v>
       </c>
       <c r="D20">
-        <v>1.012591363609319</v>
+        <v>1.013448582499525</v>
       </c>
       <c r="E20">
-        <v>0.994109359636294</v>
+        <v>0.995268083678219</v>
       </c>
       <c r="F20">
-        <v>1.009370057323341</v>
+        <v>1.010333336372802</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044349568353826</v>
+        <v>1.044783347292742</v>
       </c>
       <c r="J20">
-        <v>1.012804210801325</v>
+        <v>1.01403095345405</v>
       </c>
       <c r="K20">
-        <v>1.026416364344845</v>
+        <v>1.027259006205347</v>
       </c>
       <c r="L20">
-        <v>1.008256585776759</v>
+        <v>1.009394651592396</v>
       </c>
       <c r="M20">
-        <v>1.023250122546935</v>
+        <v>1.024196887907258</v>
       </c>
       <c r="N20">
-        <v>1.007745881287859</v>
+        <v>1.010774326118541</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029828134868614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030440523144444</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019576308016342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9782019720473949</v>
+        <v>0.9802066107703316</v>
       </c>
       <c r="D21">
-        <v>1.008037338623121</v>
+        <v>1.009570166362227</v>
       </c>
       <c r="E21">
-        <v>0.9889476104697009</v>
+        <v>0.9907535842151151</v>
       </c>
       <c r="F21">
-        <v>1.003793781735686</v>
+        <v>1.005458617702582</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042529010843521</v>
+        <v>1.043303759380221</v>
       </c>
       <c r="J21">
-        <v>1.008640201663984</v>
+        <v>1.010555845919208</v>
       </c>
       <c r="K21">
-        <v>1.022868024442123</v>
+        <v>1.024372469346481</v>
       </c>
       <c r="L21">
-        <v>1.004141443356241</v>
+        <v>1.005912276060566</v>
       </c>
       <c r="M21">
-        <v>1.018703634462706</v>
+        <v>1.020337307635087</v>
       </c>
       <c r="N21">
-        <v>1.006311429698797</v>
+        <v>1.010266856538978</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027322565677531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028403229353942</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018923887005426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9740111205925862</v>
+        <v>0.9764920380125314</v>
       </c>
       <c r="D22">
-        <v>1.005086895061752</v>
+        <v>1.007061222941075</v>
       </c>
       <c r="E22">
-        <v>0.9856095934322326</v>
+        <v>0.9878401437207305</v>
       </c>
       <c r="F22">
-        <v>1.000186867689536</v>
+        <v>1.002311155074879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041331830370592</v>
+        <v>1.042328995550516</v>
       </c>
       <c r="J22">
-        <v>1.005935942788532</v>
+        <v>1.008299853110401</v>
       </c>
       <c r="K22">
-        <v>1.020558248663372</v>
+        <v>1.022494081588958</v>
       </c>
       <c r="L22">
-        <v>1.001471620830212</v>
+        <v>1.003656400752234</v>
       </c>
       <c r="M22">
-        <v>1.015754623603246</v>
+        <v>1.017836966147569</v>
       </c>
       <c r="N22">
-        <v>1.005376042894306</v>
+        <v>1.00992345174241</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025675786989229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027060194372295</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018495324079228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9762274344136683</v>
+        <v>0.9784368996162643</v>
       </c>
       <c r="D23">
-        <v>1.0066417561831</v>
+        <v>1.008368209303693</v>
       </c>
       <c r="E23">
-        <v>0.9873712137165008</v>
+        <v>0.9893590247079189</v>
       </c>
       <c r="F23">
-        <v>1.002091045344113</v>
+        <v>1.003956244570279</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041962614520114</v>
+        <v>1.042834925882918</v>
       </c>
       <c r="J23">
-        <v>1.007361174579917</v>
+        <v>1.009469698564796</v>
       </c>
       <c r="K23">
-        <v>1.021772986794609</v>
+        <v>1.023466679083615</v>
       </c>
       <c r="L23">
-        <v>1.0028783492164</v>
+        <v>1.004826494016557</v>
       </c>
       <c r="M23">
-        <v>1.017309337763998</v>
+        <v>1.019138728042786</v>
       </c>
       <c r="N23">
-        <v>1.005865445208503</v>
+        <v>1.010054272945103</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026524932767201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027737190005131</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018713752466727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9847506512010379</v>
+        <v>0.9860222019412908</v>
       </c>
       <c r="D24">
-        <v>1.012640726966536</v>
+        <v>1.013490875087368</v>
       </c>
       <c r="E24">
-        <v>0.9941702595418415</v>
+        <v>0.9953235938031703</v>
       </c>
       <c r="F24">
-        <v>1.009436346327822</v>
+        <v>1.010392526629871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044366290112865</v>
+        <v>1.044796499080615</v>
       </c>
       <c r="J24">
-        <v>1.012848617802712</v>
+        <v>1.014069139557926</v>
       </c>
       <c r="K24">
-        <v>1.026449435111689</v>
+        <v>1.02728514669794</v>
       </c>
       <c r="L24">
-        <v>1.00830053130196</v>
+        <v>1.009433333103855</v>
       </c>
       <c r="M24">
-        <v>1.023299751149181</v>
+        <v>1.024239563161164</v>
       </c>
       <c r="N24">
-        <v>1.007755630430696</v>
+        <v>1.010776881888648</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029823888743108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030428718636336</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019579209120445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942072675072248</v>
+        <v>0.9947196017299449</v>
       </c>
       <c r="D25">
-        <v>1.019316049369812</v>
+        <v>1.019394009280752</v>
       </c>
       <c r="E25">
-        <v>1.001751060480477</v>
+        <v>1.002238552012802</v>
       </c>
       <c r="F25">
-        <v>1.017620079427929</v>
+        <v>1.017794116368344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046973381971522</v>
+        <v>1.047012904073207</v>
       </c>
       <c r="J25">
-        <v>1.018931165303524</v>
+        <v>1.019425988527429</v>
       </c>
       <c r="K25">
-        <v>1.031621730083451</v>
+        <v>1.031698537466394</v>
       </c>
       <c r="L25">
-        <v>1.014322254171736</v>
+        <v>1.014802216454325</v>
       </c>
       <c r="M25">
-        <v>1.029950888238193</v>
+        <v>1.030122341683895</v>
       </c>
       <c r="N25">
-        <v>1.009850174267299</v>
+        <v>1.012184061904363</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033478124291619</v>
+        <v>1.03354602668363</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02059053832454</v>
       </c>
     </row>
   </sheetData>
